--- a/Teilliste.xlsx
+++ b/Teilliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F7DA4B-DAE9-4676-AA91-B2827FE64356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C37BF-1561-4D3D-A927-EF3093D26F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAC06793-36CA-4296-8B2C-D8ACBE19B90D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AAC06793-36CA-4296-8B2C-D8ACBE19B90D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t xml:space="preserve"> PO1093</t>
   </si>
   <si>
-    <t>Pololu 30:1 Micro Metal Gearmotor HP 6V Brushed DC Motor</t>
-  </si>
-  <si>
     <t>Eckstein</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Übrige Kosten =</t>
+  </si>
+  <si>
+    <t>Pololu 30:1 Micro Metal Gearmotor HP 6V Brushed DC Motor with shaft</t>
   </si>
 </sst>
 </file>
@@ -806,23 +806,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C2A58-C930-403E-ADF4-293ED10F2330}">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -836,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -845,40 +845,40 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5">
         <v>5.95</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -886,368 +886,368 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>23.95</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5">
         <v>7.54</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5">
         <v>0.4</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>4060137015199</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
         <v>10.95</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5">
         <v>3.79</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5">
         <v>0.32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5">
         <v>5.61</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="11">
         <v>15.8</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="5">
         <v>4.95</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5">
         <v>0.9</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5">
         <v>0.06</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5">
         <v>3.95</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1257,16 +1257,16 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(G3:G16) - 23.95*2 - 7.54</f>
@@ -1275,7 +1275,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1285,7 +1285,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1295,7 +1295,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1305,7 +1305,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1315,7 +1315,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1325,7 +1325,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1345,7 +1345,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1365,28 +1365,28 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1417,20 +1417,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="761c5920-9b8a-4a33-bfc5-ca83beb06674" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="761c5920-9b8a-4a33-bfc5-ca83beb06674" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1637,14 +1637,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C3F0B5-8C0C-4FD0-BC38-92FD9BA17BAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736C739E-64D3-4016-A583-ED1378064F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1657,6 +1649,14 @@
     <ds:schemaRef ds:uri="fa76804e-18eb-4484-a404-1c14e8124ad1"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C3F0B5-8C0C-4FD0-BC38-92FD9BA17BAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
